--- a/Deliverable-2/Interatction Matrix.xlsx
+++ b/Deliverable-2/Interatction Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divya\Desktop\SOEN 6481\SOEN-6481-SRS\Deliverable-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\srs\SOEN-6481-SRS\Deliverable-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6A0E22-0939-411F-9FC7-41525ACA1A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67A5FC3-C978-46F8-BF93-7BD87B466114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A64BA54-F19B-4B78-90C9-5D1024EDB802}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0A64BA54-F19B-4B78-90C9-5D1024EDB802}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Local access to the controller using Touch panel / Keypad or Voice based assistants.</t>
   </si>
@@ -162,18 +162,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>Total Overlapping</t>
@@ -580,41 +568,41 @@
   <dimension ref="A1:AT47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="38.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="4" customWidth="1"/>
-    <col min="3" max="5" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="45" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="38.77734375" style="1"/>
+    <col min="2" max="2" width="5.85546875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="45" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="38.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="4" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
@@ -749,7 +737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -890,7 +878,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1031,7 +1019,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1172,7 +1160,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1313,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +1442,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1595,7 +1583,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1736,7 +1724,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1877,7 +1865,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2018,7 +2006,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2159,7 +2147,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -2300,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2441,7 +2429,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2582,7 +2570,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:46" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2723,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2864,7 +2852,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -3005,7 +2993,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -3146,7 +3134,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -3287,7 +3275,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -3428,7 +3416,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:46" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3569,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3710,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3851,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -3992,7 +3980,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -4133,7 +4121,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -4274,7 +4262,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -4415,7 +4403,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -4556,7 +4544,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -4697,7 +4685,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -4838,7 +4826,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="31" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -4979,7 +4967,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -5080,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AI32" s="2">
         <v>0</v>
@@ -5117,10 +5105,10 @@
       </c>
       <c r="AT32" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -5218,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="AG33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH33" s="2">
         <v>0</v>
@@ -5239,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33" s="2">
         <v>0</v>
@@ -5258,10 +5246,10 @@
       </c>
       <c r="AT33" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
-    <row r="34" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -5402,7 +5390,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -5543,7 +5531,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -5684,7 +5672,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -5825,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -5966,7 +5954,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:46" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -6067,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39" s="2">
         <v>0</v>
@@ -6104,10 +6092,10 @@
       </c>
       <c r="AT39" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -6248,7 +6236,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="41" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -6389,7 +6377,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="1:46" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:46" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -6530,7 +6518,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="43" spans="1:46" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -6671,7 +6659,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="44" spans="1:46" s="4" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:46" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -6798,11 +6786,11 @@
       </c>
       <c r="AG44" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="3">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1002</v>
       </c>
       <c r="AI44" s="3">
         <f t="shared" si="1"/>
@@ -6826,7 +6814,7 @@
       </c>
       <c r="AN44" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO44" s="3">
         <f t="shared" si="1"/>
@@ -6850,25 +6838,25 @@
       </c>
       <c r="AT44" s="3">
         <f t="shared" si="0"/>
-        <v>78010</v>
+        <v>77014</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4">
         <f>ABS(AT44/1000)</f>
-        <v>78.010000000000005</v>
+        <v>77.013999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4">
         <f>ABS(MOD(AT44,1000))</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7014,18 +7002,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7047,14 +7035,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA78300B-6809-4328-9FB1-404DE74CC3B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8300D725-CB29-44B5-ABD4-BA392E2791C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -7068,4 +7048,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA78300B-6809-4328-9FB1-404DE74CC3B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>